--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H2">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I2">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J2">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.90542466666666</v>
+        <v>16.23967033333334</v>
       </c>
       <c r="N2">
-        <v>65.716274</v>
+        <v>48.71901100000001</v>
       </c>
       <c r="O2">
-        <v>0.4103613011498748</v>
+        <v>0.3412424148893533</v>
       </c>
       <c r="P2">
-        <v>0.4103613011498748</v>
+        <v>0.3412424148893533</v>
       </c>
       <c r="Q2">
-        <v>4358.680305943937</v>
+        <v>2381.068356753116</v>
       </c>
       <c r="R2">
-        <v>39228.12275349544</v>
+        <v>21429.61521077804</v>
       </c>
       <c r="S2">
-        <v>0.1808837121736066</v>
+        <v>0.1359186826696099</v>
       </c>
       <c r="T2">
-        <v>0.1808837121736066</v>
+        <v>0.1359186826696099</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H3">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I3">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J3">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>69.59894799999999</v>
       </c>
       <c r="O3">
-        <v>0.4346064242769223</v>
+        <v>0.4874916916781935</v>
       </c>
       <c r="P3">
-        <v>0.4346064242769223</v>
+        <v>0.4874916916781935</v>
       </c>
       <c r="Q3">
-        <v>4616.201520524675</v>
+        <v>3401.543860282909</v>
       </c>
       <c r="R3">
-        <v>41545.81368472207</v>
+        <v>30613.89474254618</v>
       </c>
       <c r="S3">
-        <v>0.1915707527425826</v>
+        <v>0.1941705534077997</v>
       </c>
       <c r="T3">
-        <v>0.1915707527425827</v>
+        <v>0.1941705534077996</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H4">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I4">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J4">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.275750666666667</v>
+        <v>8.150515666666667</v>
       </c>
       <c r="N4">
-        <v>24.827252</v>
+        <v>24.451547</v>
       </c>
       <c r="O4">
-        <v>0.1550322745732029</v>
+        <v>0.1712658934324533</v>
       </c>
       <c r="P4">
-        <v>0.1550322745732029</v>
+        <v>0.1712658934324533</v>
       </c>
       <c r="Q4">
-        <v>1646.685786584724</v>
+        <v>1195.032568197281</v>
       </c>
       <c r="R4">
-        <v>14820.17207926251</v>
+        <v>10755.29311377553</v>
       </c>
       <c r="S4">
-        <v>0.06833688569789577</v>
+        <v>0.06821612321879958</v>
       </c>
       <c r="T4">
-        <v>0.06833688569789577</v>
+        <v>0.06821612321879957</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>590.324021</v>
       </c>
       <c r="I5">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J5">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.90542466666666</v>
+        <v>16.23967033333334</v>
       </c>
       <c r="N5">
-        <v>65.716274</v>
+        <v>48.71901100000001</v>
       </c>
       <c r="O5">
-        <v>0.4103613011498748</v>
+        <v>0.3412424148893533</v>
       </c>
       <c r="P5">
-        <v>0.4103613011498748</v>
+        <v>0.3412424148893533</v>
       </c>
       <c r="Q5">
-        <v>4310.432790313083</v>
+        <v>3195.555830295915</v>
       </c>
       <c r="R5">
-        <v>38793.89511281776</v>
+        <v>28760.00247266324</v>
       </c>
       <c r="S5">
-        <v>0.1788814571060437</v>
+        <v>0.1824121250526732</v>
       </c>
       <c r="T5">
-        <v>0.1788814571060437</v>
+        <v>0.1824121250526732</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>590.324021</v>
       </c>
       <c r="I6">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J6">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>69.59894799999999</v>
       </c>
       <c r="O6">
-        <v>0.4346064242769223</v>
+        <v>0.4874916916781935</v>
       </c>
       <c r="P6">
-        <v>0.4346064242769223</v>
+        <v>0.4874916916781935</v>
       </c>
       <c r="Q6">
         <v>4565.103426747767</v>
@@ -821,10 +821,10 @@
         <v>41085.9308407299</v>
       </c>
       <c r="S6">
-        <v>0.189450199676381</v>
+        <v>0.2605901011847406</v>
       </c>
       <c r="T6">
-        <v>0.189450199676381</v>
+        <v>0.2605901011847406</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>590.324021</v>
       </c>
       <c r="I7">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J7">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.275750666666667</v>
+        <v>8.150515666666667</v>
       </c>
       <c r="N7">
-        <v>24.827252</v>
+        <v>24.451547</v>
       </c>
       <c r="O7">
-        <v>0.1550322745732029</v>
+        <v>0.1712658934324533</v>
       </c>
       <c r="P7">
-        <v>0.1550322745732029</v>
+        <v>0.1712658934324533</v>
       </c>
       <c r="Q7">
-        <v>1628.458136780033</v>
+        <v>1603.815060523388</v>
       </c>
       <c r="R7">
-        <v>14656.12323102029</v>
+        <v>14434.33554471049</v>
       </c>
       <c r="S7">
-        <v>0.06758044458970601</v>
+        <v>0.09155068129554834</v>
       </c>
       <c r="T7">
-        <v>0.06758044458970602</v>
+        <v>0.09155068129554836</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H8">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I8">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J8">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.90542466666666</v>
+        <v>16.23967033333334</v>
       </c>
       <c r="N8">
-        <v>65.716274</v>
+        <v>48.71901100000001</v>
       </c>
       <c r="O8">
-        <v>0.4103613011498748</v>
+        <v>0.3412424148893533</v>
       </c>
       <c r="P8">
-        <v>0.4103613011498748</v>
+        <v>0.3412424148893533</v>
       </c>
       <c r="Q8">
-        <v>1215.723804048098</v>
+        <v>392.5841078697597</v>
       </c>
       <c r="R8">
-        <v>10941.51423643289</v>
+        <v>3533.256970827838</v>
       </c>
       <c r="S8">
-        <v>0.0504521137634605</v>
+        <v>0.02240990462426041</v>
       </c>
       <c r="T8">
-        <v>0.0504521137634605</v>
+        <v>0.02240990462426041</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H9">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I9">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J9">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>69.59894799999999</v>
       </c>
       <c r="O9">
-        <v>0.4346064242769223</v>
+        <v>0.4874916916781935</v>
       </c>
       <c r="P9">
-        <v>0.4346064242769223</v>
+        <v>0.4874916916781935</v>
       </c>
       <c r="Q9">
-        <v>1287.551662169796</v>
+        <v>560.8373476475906</v>
       </c>
       <c r="R9">
-        <v>11587.96495952817</v>
+        <v>5047.536128828316</v>
       </c>
       <c r="S9">
-        <v>0.05343294481840483</v>
+        <v>0.03201431545128983</v>
       </c>
       <c r="T9">
-        <v>0.05343294481840483</v>
+        <v>0.03201431545128983</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H10">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I10">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J10">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.275750666666667</v>
+        <v>8.150515666666667</v>
       </c>
       <c r="N10">
-        <v>24.827252</v>
+        <v>24.451547</v>
       </c>
       <c r="O10">
-        <v>0.1550322745732029</v>
+        <v>0.1712658934324533</v>
       </c>
       <c r="P10">
-        <v>0.1550322745732029</v>
+        <v>0.1712658934324533</v>
       </c>
       <c r="Q10">
-        <v>459.2938614490037</v>
+        <v>197.0337362765944</v>
       </c>
       <c r="R10">
-        <v>4133.644753041032</v>
+        <v>1773.303626489349</v>
       </c>
       <c r="S10">
-        <v>0.01906053502573963</v>
+        <v>0.01124728981435236</v>
       </c>
       <c r="T10">
-        <v>0.01906053502573963</v>
+        <v>0.01124728981435236</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H11">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I11">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J11">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.90542466666666</v>
+        <v>16.23967033333334</v>
       </c>
       <c r="N11">
-        <v>65.716274</v>
+        <v>48.71901100000001</v>
       </c>
       <c r="O11">
-        <v>0.4103613011498748</v>
+        <v>0.3412424148893533</v>
       </c>
       <c r="P11">
-        <v>0.4103613011498748</v>
+        <v>0.3412424148893533</v>
       </c>
       <c r="Q11">
-        <v>3.470344997392</v>
+        <v>8.78899078275167</v>
       </c>
       <c r="R11">
-        <v>31.233104976528</v>
+        <v>79.10091704476501</v>
       </c>
       <c r="S11">
-        <v>0.0001440181067639523</v>
+        <v>0.0005017025428097834</v>
       </c>
       <c r="T11">
-        <v>0.0001440181067639523</v>
+        <v>0.0005017025428097834</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H12">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I12">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J12">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>69.59894799999999</v>
       </c>
       <c r="O12">
-        <v>0.4346064242769223</v>
+        <v>0.4874916916781935</v>
       </c>
       <c r="P12">
-        <v>0.4346064242769223</v>
+        <v>0.4874916916781935</v>
       </c>
       <c r="Q12">
-        <v>3.675381245984</v>
+        <v>12.55576621744667</v>
       </c>
       <c r="R12">
-        <v>33.078431213856</v>
+        <v>113.00189595702</v>
       </c>
       <c r="S12">
-        <v>0.0001525270395537453</v>
+        <v>0.0007167216343633469</v>
       </c>
       <c r="T12">
-        <v>0.0001525270395537453</v>
+        <v>0.0007167216343633468</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H13">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I13">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J13">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.275750666666667</v>
+        <v>8.150515666666667</v>
       </c>
       <c r="N13">
-        <v>24.827252</v>
+        <v>24.451547</v>
       </c>
       <c r="O13">
-        <v>0.1550322745732029</v>
+        <v>0.1712658934324533</v>
       </c>
       <c r="P13">
-        <v>0.1550322745732029</v>
+        <v>0.1712658934324533</v>
       </c>
       <c r="Q13">
-        <v>1.311077523616</v>
+        <v>4.411099831378334</v>
       </c>
       <c r="R13">
-        <v>11.799697712544</v>
+        <v>39.699898482405</v>
       </c>
       <c r="S13">
-        <v>5.440925986143931E-05</v>
+        <v>0.0002517991037530078</v>
       </c>
       <c r="T13">
-        <v>5.440925986143931E-05</v>
+        <v>0.0002517991037530078</v>
       </c>
     </row>
   </sheetData>
